--- a/global_data/day_data/603038.xlsx
+++ b/global_data/day_data/603038.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2008"/>
+  <dimension ref="A1:I2010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -58640,6 +58642,64 @@
         <v>0.02391988322220502</v>
       </c>
     </row>
+    <row r="2009" spans="1:9">
+      <c r="A2009" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B2009">
+        <v>13.28</v>
+      </c>
+      <c r="C2009">
+        <v>13.67</v>
+      </c>
+      <c r="D2009">
+        <v>13.13</v>
+      </c>
+      <c r="E2009">
+        <v>13.53</v>
+      </c>
+      <c r="F2009">
+        <v>6282521</v>
+      </c>
+      <c r="G2009">
+        <v>85013916</v>
+      </c>
+      <c r="H2009">
+        <v>268677106</v>
+      </c>
+      <c r="I2009">
+        <v>0.02338316462289124</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:9">
+      <c r="A2010" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B2010">
+        <v>13.6</v>
+      </c>
+      <c r="C2010">
+        <v>13.9</v>
+      </c>
+      <c r="D2010">
+        <v>13.56</v>
+      </c>
+      <c r="E2010">
+        <v>13.86</v>
+      </c>
+      <c r="F2010">
+        <v>4620840</v>
+      </c>
+      <c r="G2010">
+        <v>63908192</v>
+      </c>
+      <c r="H2010">
+        <v>268677106</v>
+      </c>
+      <c r="I2010">
+        <v>0.01719848806172566</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
